--- a/www/projetos/proj1.xlsx
+++ b/www/projetos/proj1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -99,10 +99,7 @@
     <t>latitude</t>
   </si>
   <si>
-    <t>marcacuja</t>
-  </si>
-  <si>
-    <t>maracuja</t>
+    <t>maracujá</t>
   </si>
 </sst>
 </file>
@@ -447,7 +444,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -546,7 +543,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
